--- a/results/optimized_binary/20251125_022918_ana_optimized_binary_smoteenn/20251125_022918_ana_optimized_binary_smoteenn_importancia_consolidada.xlsx
+++ b/results/optimized_binary/20251125_022918_ana_optimized_binary_smoteenn/20251125_022918_ana_optimized_binary_smoteenn_importancia_consolidada.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,29 @@
       </c>
       <c r="G6" t="n">
         <v>0.0102</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.7823600000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1179</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03394</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02868</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03715999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +865,38 @@
       </c>
       <c r="J6" t="n">
         <v>0.0236</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.4598</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.26842</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04284</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09482</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02696</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0504</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02952</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,6 +1178,44 @@
       </c>
       <c r="L6" t="n">
         <v>0.0261</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.12384</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.40548</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03112</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06652</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03194</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06963999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.13586</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.08066</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.03656</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01838</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1417,32 @@
       </c>
       <c r="H6" t="n">
         <v>0.0232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.4970199999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1766</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06577999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09878000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02602</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,6 +1664,35 @@
       </c>
       <c r="I6" t="n">
         <v>0.0052</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.2443</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39726</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05376</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.14694</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.06355999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06254</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03166000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1726,6 +1874,29 @@
       </c>
       <c r="G6" t="n">
         <v>0.015</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.1298</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.74996</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05216</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04784</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0203</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,6 +2058,26 @@
       </c>
       <c r="F6" t="n">
         <v>0.0169</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.9803599999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00444</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00796</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.007239999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +2091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,6 +2299,35 @@
       </c>
       <c r="I6" t="n">
         <v>0.0083</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.6097400000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19714</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01244</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05377999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05328000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02428</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0493</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,6 +2571,38 @@
         <v>0.0171</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.45234</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12684</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04122</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02132</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.24668</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03792</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
